--- a/test_02.xlsx
+++ b/test_02.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/younesskhatib/Desktop/Resume/CV/website/Hack8/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B60AD7-7E05-D24D-BEFA-9A0CE9A9D62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,11 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -397,63 +452,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>21762</v>
       </c>
       <c r="B2">
-        <v>0.2880571428571428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.28805714285714279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21793</v>
       </c>
       <c r="B3">
-        <v>0.3006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.30059999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>21823</v>
       </c>
       <c r="B4">
-        <v>0.3024571428571429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.30245714285714292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>21854</v>
       </c>
       <c r="B5">
-        <v>0.3178809523809524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.31788095238095238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>21884</v>
       </c>
       <c r="B6">
-        <v>0.3312052631578947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.33120526315789472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>21915</v>
       </c>
       <c r="B7">
-        <v>0.3254818181818181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.32548181818181809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>21946</v>
       </c>
       <c r="B8">
-        <v>0.3205399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.32053999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>21975</v>
       </c>
@@ -461,31 +516,31 @@
         <v>0.3212799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>22006</v>
       </c>
       <c r="B10">
-        <v>0.2911304347826087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.29113043478260869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>22036</v>
       </c>
       <c r="B11">
-        <v>0.299345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.29934500000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>22067</v>
       </c>
       <c r="B12">
-        <v>0.2960095238095238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.29600952380952378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>22097</v>
       </c>
@@ -493,55 +548,55 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>22128</v>
       </c>
       <c r="B14">
-        <v>0.306945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.30694500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>22159</v>
       </c>
       <c r="B15">
-        <v>0.3028565217391305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.30285652173913052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>22189</v>
       </c>
       <c r="B16">
-        <v>0.2903523809523809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.29035238095238092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>22220</v>
       </c>
       <c r="B17">
-        <v>0.2795857142857143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.27958571428571433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>22250</v>
       </c>
       <c r="B18">
-        <v>0.28184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.28183999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>22281</v>
       </c>
       <c r="B19">
-        <v>0.2790809523809524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.27908095238095237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>22312</v>
       </c>
@@ -549,343 +604,343 @@
         <v>0.2723714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>22340</v>
       </c>
       <c r="B21">
-        <v>0.2822052631578947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.28220526315789468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22371</v>
       </c>
       <c r="B22">
-        <v>0.2864454545454546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.28644545454545461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22401</v>
       </c>
       <c r="B23">
-        <v>0.2958149999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.29581499999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22432</v>
       </c>
       <c r="B24">
-        <v>0.3162142857142857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.31621428571428573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22462</v>
       </c>
       <c r="B25">
-        <v>0.3064454545454546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.30644545454545458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>22493</v>
       </c>
       <c r="B26">
-        <v>0.303745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.30374499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>22524</v>
       </c>
       <c r="B27">
-        <v>0.3074826086956522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.30748260869565219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>22554</v>
       </c>
       <c r="B28">
-        <v>0.3082500000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.30825000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>22585</v>
       </c>
       <c r="B29">
-        <v>0.2998954545454545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.29989545454545452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>22615</v>
       </c>
       <c r="B30">
-        <v>0.297035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.29703499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>22646</v>
       </c>
       <c r="B31">
-        <v>0.29977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.29976999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>22677</v>
       </c>
       <c r="B32">
-        <v>0.3025952380952381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.30259523809523808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>22705</v>
       </c>
       <c r="B33">
-        <v>0.3034894736842105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.30348947368421048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>22736</v>
       </c>
       <c r="B34">
-        <v>0.3054681818181819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.30546818181818192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>22766</v>
       </c>
       <c r="B35">
-        <v>0.29911</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.29910999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>22797</v>
       </c>
       <c r="B36">
-        <v>0.2953636363636364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.29536363636363638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>22827</v>
       </c>
       <c r="B37">
-        <v>0.2862238095238095</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.28622380952380949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>22858</v>
       </c>
       <c r="B38">
-        <v>0.2840380952380953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.28403809523809531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>22889</v>
       </c>
       <c r="B39">
-        <v>0.2885739130434782</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.28857391304347818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>22919</v>
       </c>
       <c r="B40">
-        <v>0.2859052631578947</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.28590526315789472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>22950</v>
       </c>
       <c r="B41">
-        <v>0.2841782608695653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.28417826086956532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>22980</v>
       </c>
       <c r="B42">
-        <v>0.287985</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.28798499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>23011</v>
       </c>
       <c r="B43">
-        <v>0.2869315789473684</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.28693157894736843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>23042</v>
       </c>
       <c r="B44">
-        <v>0.2905863636363636</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.29058636363636359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>23070</v>
       </c>
       <c r="B45">
-        <v>0.2940473684210527</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.29404736842105272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>23101</v>
       </c>
       <c r="B46">
-        <v>0.2958095238095239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.29580952380952391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>23131</v>
       </c>
       <c r="B47">
-        <v>0.2987952380952381</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.29879523809523811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>23162</v>
       </c>
       <c r="B48">
-        <v>0.2984818181818182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.29848181818181818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>23192</v>
       </c>
       <c r="B49">
-        <v>0.29748</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.29748000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>23223</v>
       </c>
       <c r="B50">
-        <v>0.2966363636363636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.29663636363636359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>23254</v>
       </c>
       <c r="B51">
-        <v>0.2969545454545455</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.29695454545454553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>23284</v>
       </c>
       <c r="B52">
-        <v>0.30036</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.30036000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>23315</v>
       </c>
       <c r="B53">
-        <v>0.3004347826086956</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.30043478260869561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>23345</v>
       </c>
       <c r="B54">
-        <v>0.3006333333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.30063333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>23376</v>
       </c>
       <c r="B55">
-        <v>0.3014952380952381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.30149523809523809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>23407</v>
       </c>
       <c r="B56">
-        <v>0.3108681818181818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.31086818181818182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>23436</v>
       </c>
       <c r="B57">
-        <v>0.3268684210526316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.32686842105263159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>23467</v>
       </c>
       <c r="B58">
-        <v>0.3530285714285714</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.35302857142857141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>23497</v>
       </c>
       <c r="B59">
-        <v>0.3867227272727273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.38672272727272727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>23528</v>
       </c>
       <c r="B60">
-        <v>0.3731949999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.37319499999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>23558</v>
       </c>
       <c r="B61">
-        <v>0.3695181818181819</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.36951818181818191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>23589</v>
       </c>
       <c r="B62">
-        <v>0.3719818181818182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.37198181818181819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>23620</v>
       </c>
@@ -893,191 +948,191 @@
         <v>0.4010428571428572</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>23650</v>
       </c>
       <c r="B64">
-        <v>0.4101285714285715</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.41012857142857151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>23681</v>
       </c>
       <c r="B65">
-        <v>0.5036318181818182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.50363181818181824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>23711</v>
       </c>
       <c r="B66">
-        <v>0.5619333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.56193333333333328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>23742</v>
       </c>
       <c r="B67">
-        <v>0.4873380952380951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.48733809523809513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>23773</v>
       </c>
       <c r="B68">
-        <v>0.377095</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.37709500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>23801</v>
       </c>
       <c r="B69">
-        <v>0.4171944444444444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.41719444444444442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>23832</v>
       </c>
       <c r="B70">
-        <v>0.4354043478260869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.43540434782608689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>23862</v>
       </c>
       <c r="B71">
-        <v>0.5259857142857142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.52598571428571417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>23893</v>
       </c>
       <c r="B72">
-        <v>0.4862150000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.48621500000000017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>23923</v>
       </c>
       <c r="B73">
-        <v>0.4797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.47970000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>23954</v>
       </c>
       <c r="B74">
-        <v>0.4516190476190476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.45161904761904759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>23985</v>
       </c>
       <c r="B75">
-        <v>0.5151227272727272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.51512272727272723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>24015</v>
       </c>
       <c r="B76">
-        <v>0.5192000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.51920000000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>24046</v>
       </c>
       <c r="B77">
-        <v>0.5592650000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.55926500000000012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>24076</v>
       </c>
       <c r="B78">
-        <v>0.5614777777777777</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.56147777777777774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>24107</v>
       </c>
       <c r="B79">
-        <v>0.5449571428571429</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.54495714285714292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>24138</v>
       </c>
       <c r="B80">
-        <v>0.5864333333333333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.58643333333333325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>24166</v>
       </c>
       <c r="B81">
-        <v>0.6864736842105263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.68647368421052635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>24197</v>
       </c>
       <c r="B82">
-        <v>0.7382521739130435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.73825217391304354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>24227</v>
       </c>
       <c r="B83">
-        <v>0.759525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.75952500000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>24258</v>
       </c>
       <c r="B84">
-        <v>0.6805000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.68050000000000022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>24288</v>
       </c>
       <c r="B85">
-        <v>0.72395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.72394999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>24319</v>
       </c>
       <c r="B86">
-        <v>0.6937750000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.69377500000000014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>24350</v>
       </c>
@@ -1085,95 +1140,95 @@
         <v>0.5429173913043478</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>24380</v>
       </c>
       <c r="B88">
-        <v>0.5178190476190475</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.51781904761904751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>24411</v>
       </c>
       <c r="B89">
-        <v>0.570375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.57037499999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>24441</v>
       </c>
       <c r="B90">
-        <v>0.569236842105263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.56923684210526304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>24472</v>
       </c>
       <c r="B91">
-        <v>0.5357000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.53570000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>24503</v>
       </c>
       <c r="B92">
-        <v>0.5356428571428571</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.53564285714285709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>24531</v>
       </c>
       <c r="B93">
-        <v>0.5170055555555557</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.51700555555555572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>24562</v>
       </c>
       <c r="B94">
-        <v>0.4688636363636363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.46886363636363632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>24592</v>
       </c>
       <c r="B95">
-        <v>0.428895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.42889500000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>24623</v>
       </c>
       <c r="B96">
-        <v>0.4345454545454545</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.43454545454545451</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>24653</v>
       </c>
       <c r="B97">
-        <v>0.4292727272727274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.42927272727272742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>24684</v>
       </c>
       <c r="B98">
-        <v>0.4381842105263158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.43818421052631579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>24715</v>
       </c>
@@ -1181,47 +1236,47 @@
         <v>0.4670478260869565</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>24745</v>
       </c>
       <c r="B100">
-        <v>0.4722899999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.47228999999999982</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>24776</v>
       </c>
       <c r="B101">
-        <v>0.513904761904762</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.51390476190476198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>24806</v>
       </c>
       <c r="B102">
-        <v>0.6168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.61680000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>24837</v>
       </c>
       <c r="B103">
-        <v>0.5941650000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.59416500000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>24868</v>
       </c>
       <c r="B104">
-        <v>0.5938636363636363</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.59386363636363626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>24897</v>
       </c>
@@ -1229,23 +1284,23 @@
         <v>0.6839052631578949</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>24928</v>
       </c>
       <c r="B106">
-        <v>0.6152249999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.61522499999999991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>24958</v>
       </c>
       <c r="B107">
-        <v>0.52366</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.52366000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>24989</v>
       </c>
@@ -1253,7 +1308,7 @@
         <v>0.4445142857142857</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>25019</v>
       </c>
@@ -1261,159 +1316,159 @@
         <v>0.4505300000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>25050</v>
       </c>
       <c r="B110">
-        <v>0.4415809523809524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.44158095238095241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>25081</v>
       </c>
       <c r="B111">
-        <v>0.4468409090909092</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.44684090909090918</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>25111</v>
       </c>
       <c r="B112">
-        <v>0.464625</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.46462500000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>25142</v>
       </c>
       <c r="B113">
-        <v>0.4640478260869566</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.46404782608695661</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>25172</v>
       </c>
       <c r="B114">
-        <v>0.4738833333333333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.47388333333333332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>25203</v>
       </c>
       <c r="B115">
-        <v>0.509085</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.50908500000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>25234</v>
       </c>
       <c r="B116">
-        <v>0.527909090909091</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.52790909090909099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>25262</v>
       </c>
       <c r="B117">
-        <v>0.5229235294117647</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.52292352941176468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>25293</v>
       </c>
       <c r="B118">
-        <v>0.538125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.53812499999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>25323</v>
       </c>
       <c r="B119">
-        <v>0.6032857142857141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.60328571428571409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>25354</v>
       </c>
       <c r="B120">
-        <v>0.5754761904761905</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.57547619047619047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>25384</v>
       </c>
       <c r="B121">
-        <v>0.6033285714285714</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.60332857142857144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>25415</v>
       </c>
       <c r="B122">
-        <v>0.6078571428571429</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.60785714285714287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>25446</v>
       </c>
       <c r="B123">
-        <v>0.6666380952380953</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.66663809523809525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>25476</v>
       </c>
       <c r="B124">
-        <v>0.6634999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.66349999999999987</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>25507</v>
       </c>
       <c r="B125">
-        <v>0.6783</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.67830000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>25537</v>
       </c>
       <c r="B126">
-        <v>0.7212176470588235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.72121764705882352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>25568</v>
       </c>
       <c r="B127">
-        <v>0.7237619047619047</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.72376190476190472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>25599</v>
       </c>
       <c r="B128">
-        <v>0.6903250000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>0.69032500000000008</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>25627</v>
       </c>
@@ -1421,63 +1476,63 @@
         <v>0.7124166666666667</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>25658</v>
       </c>
       <c r="B130">
-        <v>0.7325714285714287</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.73257142857142865</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>25688</v>
       </c>
       <c r="B131">
-        <v>0.7549772727272726</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.75497727272727255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>25719</v>
       </c>
       <c r="B132">
-        <v>0.694325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.69432499999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>25749</v>
       </c>
       <c r="B133">
-        <v>0.6510772727272728</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.65107727272727278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>25780</v>
       </c>
       <c r="B134">
-        <v>0.6140909090909091</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.61409090909090913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>25811</v>
       </c>
       <c r="B135">
-        <v>0.5712428571428571</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.57124285714285705</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>25841</v>
       </c>
       <c r="B136">
-        <v>0.5684761904761906</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.56847619047619058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>25872</v>
       </c>
@@ -1485,47 +1540,47 @@
         <v>0.5131904761904762</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>25902</v>
       </c>
       <c r="B138">
-        <v>0.4824333333333334</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.48243333333333338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>25933</v>
       </c>
       <c r="B139">
-        <v>0.4673272727272728</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.46732727272727281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>25964</v>
       </c>
       <c r="B140">
-        <v>0.453975</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.45397500000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>25992</v>
       </c>
       <c r="B141">
-        <v>0.46935</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.46934999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>26023</v>
       </c>
       <c r="B142">
-        <v>0.5265652173913044</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.52656521739130435</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>26053</v>
       </c>
@@ -1533,239 +1588,239 @@
         <v>0.5629238095238096</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>26084</v>
       </c>
       <c r="B144">
-        <v>0.510175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.51017500000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>26114</v>
       </c>
       <c r="B145">
-        <v>0.4954454545454545</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.49544545454545452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>26145</v>
       </c>
       <c r="B146">
-        <v>0.5152142857142857</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>0.51521428571428574</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>26176</v>
       </c>
       <c r="B147">
-        <v>0.5031473684210527</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>0.50314736842105268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>26206</v>
       </c>
       <c r="B148">
-        <v>0.4884523809523809</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>0.48845238095238092</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>26237</v>
       </c>
       <c r="B149">
-        <v>0.4795526315789475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>0.47955263157894751</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>26267</v>
       </c>
       <c r="B150">
-        <v>0.4621699999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>0.46216999999999991</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>26298</v>
       </c>
       <c r="B151">
-        <v>0.4742</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>0.47420000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>26329</v>
       </c>
       <c r="B152">
-        <v>0.4928571428571428</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>0.49285714285714283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>26358</v>
       </c>
       <c r="B153">
-        <v>0.5048899999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>0.50488999999999995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>26389</v>
       </c>
       <c r="B154">
-        <v>0.5274047619047618</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>0.52740476190476182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>26419</v>
       </c>
       <c r="B155">
-        <v>0.51596</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>0.51595999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>26450</v>
       </c>
       <c r="B156">
-        <v>0.5050454545454546</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>0.50504545454545458</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>26480</v>
       </c>
       <c r="B157">
-        <v>0.48465</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>0.48465000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>26511</v>
       </c>
       <c r="B158">
-        <v>0.4826315789473684</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>0.48263157894736841</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>26542</v>
       </c>
       <c r="B159">
-        <v>0.4893347826086956</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>0.48933478260869562</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>26572</v>
       </c>
       <c r="B160">
-        <v>0.4940000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>0.49400000000000011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>26603</v>
       </c>
       <c r="B161">
-        <v>0.480125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>0.48012500000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>26633</v>
       </c>
       <c r="B162">
-        <v>0.467985</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>0.46798499999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>26664</v>
       </c>
       <c r="B163">
-        <v>0.4833105263157895</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>0.48331052631578952</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>26695</v>
       </c>
       <c r="B164">
-        <v>0.5247142857142857</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>0.52471428571428569</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>26723</v>
       </c>
       <c r="B165">
-        <v>0.5744499999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>0.57444999999999991</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>26754</v>
       </c>
       <c r="B166">
-        <v>0.6623181818181819</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>0.66231818181818192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>26784</v>
       </c>
       <c r="B167">
-        <v>0.7024700000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>0.70247000000000015</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>26815</v>
       </c>
       <c r="B168">
-        <v>0.6832954545454544</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>0.68329545454545437</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>26845</v>
       </c>
       <c r="B169">
-        <v>0.7582809523809524</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>0.75828095238095239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>26876</v>
       </c>
       <c r="B170">
-        <v>0.862357142857143</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>0.86235714285714304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>26907</v>
       </c>
       <c r="B171">
-        <v>0.8757739130434783</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>0.87577391304347829</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>26937</v>
       </c>
       <c r="B172">
-        <v>0.7900526315789473</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>0.79005263157894734</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>26968</v>
       </c>
@@ -1773,39 +1828,39 @@
         <v>0.8815952380952381</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>26998</v>
       </c>
       <c r="B174">
-        <v>0.97767</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>0.97767000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>27029</v>
       </c>
       <c r="B175">
-        <v>0.9204684210526315</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>0.92046842105263149</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>27060</v>
       </c>
       <c r="B176">
-        <v>0.8886363636363636</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>0.88863636363636356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>27088</v>
       </c>
       <c r="B177">
-        <v>1.053122222222222</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>1.0531222222222221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>27119</v>
       </c>
@@ -1813,47 +1868,47 @@
         <v>1.158380952380953</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>27149</v>
       </c>
       <c r="B179">
-        <v>1.287961904761905</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>1.2879619047619051</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>27180</v>
       </c>
       <c r="B180">
-        <v>1.205636363636364</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>1.2056363636363641</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>27210</v>
       </c>
       <c r="B181">
-        <v>1.02933</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>1.0293300000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>27241</v>
       </c>
       <c r="B182">
-        <v>0.8685454545454546</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>0.86854545454545462</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>27272</v>
       </c>
       <c r="B183">
-        <v>0.8019454545454546</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>0.80194545454545463</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>27302</v>
       </c>
@@ -1861,247 +1916,247 @@
         <v>0.6553500000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>27333</v>
       </c>
       <c r="B185">
-        <v>0.6192727272727273</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>0.61927272727272731</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>27363</v>
       </c>
       <c r="B186">
-        <v>0.6110555555555555</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>0.61105555555555546</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>27394</v>
       </c>
       <c r="B187">
-        <v>0.5565904761904762</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>0.55659047619047619</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>27425</v>
       </c>
       <c r="B188">
-        <v>0.5273181818181819</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>0.52731818181818191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>27453</v>
       </c>
       <c r="B189">
-        <v>0.5542555555555556</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>0.55425555555555561</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>27484</v>
       </c>
       <c r="B190">
-        <v>0.5972</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>0.59719999999999995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>27514</v>
       </c>
       <c r="B191">
-        <v>0.581981818181818</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>0.58198181818181804</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>27545</v>
       </c>
       <c r="B192">
-        <v>0.5580000000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>27575</v>
       </c>
       <c r="B193">
-        <v>0.5322761904761905</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>0.53227619047619046</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>27606</v>
       </c>
       <c r="B194">
-        <v>0.574909090909091</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>0.57490909090909104</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>27637</v>
       </c>
       <c r="B195">
-        <v>0.5930571428571429</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>0.59305714285714295</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>27667</v>
       </c>
       <c r="B196">
-        <v>0.5730476190476189</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>0.57304761904761892</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>27698</v>
       </c>
       <c r="B197">
-        <v>0.551</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>27728</v>
       </c>
       <c r="B198">
-        <v>0.5460470588235296</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>0.54604705882352955</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>27759</v>
       </c>
       <c r="B199">
-        <v>0.5392380952380953</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>0.53923809523809529</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>27790</v>
       </c>
       <c r="B200">
-        <v>0.5588095238095238</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>0.55880952380952376</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>27819</v>
       </c>
       <c r="B201">
-        <v>0.5696315789473684</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>0.56963157894736838</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>27850</v>
       </c>
       <c r="B202">
-        <v>0.6185217391304347</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>0.61852173913043473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>27880</v>
       </c>
       <c r="B203">
-        <v>0.6963904761904761</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>0.69639047619047612</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>27911</v>
       </c>
       <c r="B204">
-        <v>0.6982499999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>0.69824999999999993</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>27941</v>
       </c>
       <c r="B205">
-        <v>0.7094545454545454</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>0.70945454545454545</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>27972</v>
       </c>
       <c r="B206">
-        <v>0.7575238095238094</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>0.75752380952380938</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>28003</v>
       </c>
       <c r="B207">
-        <v>0.6969727272727274</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>0.69697272727272741</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>28033</v>
       </c>
       <c r="B208">
-        <v>0.6718095238095239</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>0.67180952380952386</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>28064</v>
       </c>
       <c r="B209">
-        <v>0.5886666666666668</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>0.58866666666666678</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>28094</v>
       </c>
       <c r="B210">
-        <v>0.5867699999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>0.58676999999999979</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>28125</v>
       </c>
       <c r="B211">
-        <v>0.5967523809523809</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>0.59675238095238092</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>28156</v>
       </c>
       <c r="B212">
-        <v>0.6472857142857142</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>0.64728571428571424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>28184</v>
       </c>
       <c r="B213">
-        <v>0.6570315789473685</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>0.65703157894736852</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>28215</v>
       </c>
       <c r="B214">
-        <v>0.7033043478260869</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>0.70330434782608686</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>28245</v>
       </c>
@@ -2109,95 +2164,95 @@
         <v>0.65886</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>28276</v>
       </c>
       <c r="B216">
-        <v>0.6392857142857142</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>0.63928571428571423</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>28306</v>
       </c>
       <c r="B217">
-        <v>0.6057909090909092</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>0.60579090909090916</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>28337</v>
       </c>
       <c r="B218">
-        <v>0.5747368421052632</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>0.57473684210526321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>28368</v>
       </c>
       <c r="B219">
-        <v>0.5351826086956522</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>0.53518260869565215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>28398</v>
       </c>
       <c r="B220">
-        <v>0.5610476190476191</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>0.56104761904761913</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>28429</v>
       </c>
       <c r="B221">
-        <v>0.566047619047619</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>0.56604761904761902</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>28459</v>
       </c>
       <c r="B222">
-        <v>0.5520095238095238</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>0.55200952380952384</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>28490</v>
       </c>
       <c r="B223">
-        <v>0.5900285714285715</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>0.59002857142857146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>28521</v>
       </c>
       <c r="B224">
-        <v>0.5922999999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>0.59229999999999994</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>28549</v>
       </c>
       <c r="B225">
-        <v>0.5710000000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>0.57100000000000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>28580</v>
       </c>
       <c r="B226">
-        <v>0.593318181818182</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>0.59331818181818197</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>28610</v>
       </c>
@@ -2205,47 +2260,47 @@
         <v>0.59941</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>28641</v>
       </c>
       <c r="B228">
-        <v>0.6121818181818183</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>0.61218181818181827</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>28671</v>
       </c>
       <c r="B229">
-        <v>0.6130818181818182</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>0.61308181818181817</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>28702</v>
       </c>
       <c r="B230">
-        <v>0.621075</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>0.62107500000000004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>28733</v>
       </c>
       <c r="B231">
-        <v>0.6463260869565217</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>0.64632608695652172</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>28763</v>
       </c>
       <c r="B232">
-        <v>0.660575</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>0.66057500000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>28794</v>
       </c>
@@ -2253,15 +2308,15 @@
         <v>0.6835</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>28824</v>
       </c>
       <c r="B234">
-        <v>0.661785</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>0.66178499999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>28855</v>
       </c>
@@ -2269,47 +2324,47 @@
         <v>0.68389</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>28886</v>
       </c>
       <c r="B236">
-        <v>0.7371136363636365</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>0.73711363636363647</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>28914</v>
       </c>
       <c r="B237">
-        <v>0.8645736842105263</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>0.86457368421052627</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>28945</v>
       </c>
       <c r="B238">
-        <v>0.9231363636363636</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>0.92313636363636364</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>28975</v>
       </c>
       <c r="B239">
-        <v>0.92569</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>0.92569000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>29006</v>
       </c>
       <c r="B240">
-        <v>0.8487727272727273</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>0.84877272727272735</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>29036</v>
       </c>
@@ -2317,15 +2372,15 @@
         <v>0.8317619047619047</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>29067</v>
       </c>
       <c r="B242">
-        <v>0.8164523809523809</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>0.81645238095238093</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>29098</v>
       </c>
@@ -2333,119 +2388,119 @@
         <v>0.8783260869565217</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>29128</v>
       </c>
       <c r="B244">
-        <v>0.9270263157894738</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>0.92702631578947381</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>29159</v>
       </c>
       <c r="B245">
-        <v>0.9423913043478258</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>0.94239130434782581</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>29189</v>
       </c>
       <c r="B246">
-        <v>0.9714333333333333</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>0.97143333333333326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>29220</v>
       </c>
       <c r="B247">
-        <v>1.009410526315789</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>1.0094105263157891</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>29251</v>
       </c>
       <c r="B248">
-        <v>1.191363636363637</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>1.1913636363636371</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>29280</v>
       </c>
       <c r="B249">
-        <v>1.30225</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>1.3022499999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>29311</v>
       </c>
       <c r="B250">
-        <v>0.9983809523809525</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>0.99838095238095248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>29341</v>
       </c>
       <c r="B251">
-        <v>0.8986571428571428</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>0.89865714285714282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>29372</v>
       </c>
       <c r="B252">
-        <v>0.906857142857143</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>0.90685714285714303</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>29402</v>
       </c>
       <c r="B253">
-        <v>0.8773571428571427</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>0.87735714285714272</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>29433</v>
       </c>
       <c r="B254">
-        <v>0.9891363636363635</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>0.98913636363636348</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>29464</v>
       </c>
       <c r="B255">
-        <v>0.9349190476190478</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>0.93491904761904776</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>29494</v>
       </c>
       <c r="B256">
-        <v>0.9540000000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>0.95400000000000007</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>29525</v>
       </c>
       <c r="B257">
-        <v>0.9517173913043477</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>0.95171739130434774</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>29555</v>
       </c>
@@ -2453,87 +2508,87 @@
         <v>0.9239166666666665</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>29586</v>
       </c>
       <c r="B259">
-        <v>0.8465142857142857</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>0.84651428571428566</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>29617</v>
       </c>
       <c r="B260">
-        <v>0.8623809523809524</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>0.86238095238095236</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>29645</v>
       </c>
       <c r="B261">
-        <v>0.8193210526315789</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>0.81932105263157895</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>29676</v>
       </c>
       <c r="B262">
-        <v>0.8410227272727273</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>0.84102272727272731</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>29706</v>
       </c>
       <c r="B263">
-        <v>0.8314380952380953</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>0.83143809523809531</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>29737</v>
       </c>
       <c r="B264">
-        <v>0.815625</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>0.81562500000000004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>29767</v>
       </c>
       <c r="B265">
-        <v>0.7829727272727272</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>0.78297272727272715</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>29798</v>
       </c>
       <c r="B266">
-        <v>0.7858181818181819</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>0.78581818181818186</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>29829</v>
       </c>
       <c r="B267">
-        <v>0.8144714285714287</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>0.81447142857142873</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>29859</v>
       </c>
       <c r="B268">
-        <v>0.8010714285714284</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>0.80107142857142843</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>29890</v>
       </c>
@@ -2541,31 +2596,31 @@
         <v>0.7649999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>29920</v>
       </c>
       <c r="B270">
-        <v>0.74004</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>0.74004000000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>29951</v>
       </c>
       <c r="B271">
-        <v>0.7391272727272727</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>0.73912727272727274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>29982</v>
       </c>
       <c r="B272">
-        <v>0.732675</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>0.73267499999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>30010</v>
       </c>
@@ -2573,55 +2628,55 @@
         <v>0.7207684210526315</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>30041</v>
       </c>
       <c r="B274">
-        <v>0.6892608695652174</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>0.68926086956521737</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>30071</v>
       </c>
       <c r="B275">
-        <v>0.6951619047619045</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>0.69516190476190454</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>30102</v>
       </c>
       <c r="B276">
-        <v>0.7078750000000001</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>0.70787500000000014</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>30132</v>
       </c>
       <c r="B277">
-        <v>0.5859272727272727</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>0.58592727272727274</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>30163</v>
       </c>
       <c r="B278">
-        <v>0.644357142857143</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>0.64435714285714296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>30194</v>
       </c>
       <c r="B279">
-        <v>0.6261772727272727</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>0.62617727272727275</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>30224</v>
       </c>
@@ -2629,31 +2684,31 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>30255</v>
       </c>
       <c r="B281">
-        <v>0.6505238095238094</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>0.65052380952380939</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>30285</v>
       </c>
       <c r="B282">
-        <v>0.643525</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>0.64352500000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>30316</v>
       </c>
       <c r="B283">
-        <v>0.6705142857142856</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>0.67051428571428562</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>30347</v>
       </c>
@@ -2661,87 +2716,87 @@
         <v>0.7358809523809523</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>30375</v>
       </c>
       <c r="B285">
-        <v>0.7616947368421054</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>0.76169473684210542</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>30406</v>
       </c>
       <c r="B286">
-        <v>0.7422391304347826</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>0.74223913043478262</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>30436</v>
       </c>
       <c r="B287">
-        <v>0.763145</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>0.76314499999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>30467</v>
       </c>
       <c r="B288">
-        <v>0.798285714285714</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>0.79828571428571404</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>30497</v>
       </c>
       <c r="B289">
-        <v>0.7546863636363635</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>0.75468636363636354</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>30528</v>
       </c>
       <c r="B290">
-        <v>0.7716749999999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>0.77167499999999989</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>30559</v>
       </c>
       <c r="B291">
-        <v>0.7420695652173914</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>0.74206956521739142</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>30589</v>
       </c>
       <c r="B292">
-        <v>0.7202857142857143</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>0.72028571428571431</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>30620</v>
       </c>
       <c r="B293">
-        <v>0.6544285714285716</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>0.65442857142857158</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>30650</v>
       </c>
       <c r="B294">
-        <v>0.6288333333333332</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>0.62883333333333324</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>30681</v>
       </c>
@@ -2749,71 +2804,71 @@
         <v>0.6461190476190477</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>30712</v>
       </c>
       <c r="B296">
-        <v>0.6312380952380953</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>0.63123809523809526</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>30741</v>
       </c>
       <c r="B297">
-        <v>0.6456750000000001</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>0.64567500000000011</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>30772</v>
       </c>
       <c r="B298">
-        <v>0.6873863636363636</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>0.68738636363636363</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>30802</v>
       </c>
       <c r="B299">
-        <v>0.6886150000000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>0.68861500000000009</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>30833</v>
       </c>
       <c r="B300">
-        <v>0.6436136363636363</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>0.64361363636363633</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>30863</v>
       </c>
       <c r="B301">
-        <v>0.6142666666666665</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>0.61426666666666652</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>30894</v>
       </c>
       <c r="B302">
-        <v>0.5939047619047619</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>0.59390476190476194</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>30925</v>
       </c>
       <c r="B303">
-        <v>0.5981826086956523</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <v>0.59818260869565232</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>30955</v>
       </c>
@@ -2821,7 +2876,7 @@
         <v>0.5853947368421053</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>30986</v>
       </c>
@@ -2829,47 +2884,47 @@
         <v>0.5718913043478262</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>31016</v>
       </c>
       <c r="B306">
-        <v>0.5986000000000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>0.59860000000000013</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>31047</v>
       </c>
       <c r="B307">
-        <v>0.5777631578947368</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <v>0.57776315789473676</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>31078</v>
       </c>
       <c r="B308">
-        <v>0.5971136363636363</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <v>0.59711363636363635</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>31106</v>
       </c>
       <c r="B309">
-        <v>0.6088210526315789</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <v>0.60882105263157893</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>31137</v>
       </c>
       <c r="B310">
-        <v>0.6076190476190474</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>0.60761904761904739</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>31167</v>
       </c>
@@ -2877,23 +2932,23 @@
         <v>0.6393714285714287</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>31198</v>
       </c>
       <c r="B312">
-        <v>0.635909090909091</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>0.63590909090909098</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>31228</v>
       </c>
       <c r="B313">
-        <v>0.6042350000000001</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>0.60423500000000008</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>31259</v>
       </c>
@@ -2901,31 +2956,31 @@
         <v>0.6140000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>31290</v>
       </c>
       <c r="B315">
-        <v>0.6048272727272727</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
+        <v>0.60482727272727266</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>31320</v>
       </c>
       <c r="B316">
-        <v>0.6041000000000001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>0.60410000000000008</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>31351</v>
       </c>
       <c r="B317">
-        <v>0.6162391304347826</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <v>0.61623913043478262</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>31381</v>
       </c>
@@ -2933,95 +2988,95 @@
         <v>0.6088650000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>31412</v>
       </c>
       <c r="B319">
-        <v>0.6332952380952381</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
+        <v>0.63329523809523813</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>31443</v>
       </c>
       <c r="B320">
-        <v>0.6591136363636365</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+        <v>0.65911363636363651</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>31471</v>
       </c>
       <c r="B321">
-        <v>0.6412473684210526</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>0.64124736842105257</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>31502</v>
       </c>
       <c r="B322">
-        <v>0.6662</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>0.66620000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>31532</v>
       </c>
       <c r="B323">
-        <v>0.6401272727272728</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>0.64012727272727277</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>31563</v>
       </c>
       <c r="B324">
-        <v>0.6309523809523809</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>0.63095238095238093</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>31593</v>
       </c>
       <c r="B325">
-        <v>0.6278047619047619</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>0.62780476190476187</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>31624</v>
       </c>
       <c r="B326">
-        <v>0.5938095238095238</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+        <v>0.59380952380952379</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>31655</v>
       </c>
       <c r="B327">
-        <v>0.5785333333333335</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>0.57853333333333345</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>31685</v>
       </c>
       <c r="B328">
-        <v>0.6132619047619048</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <v>0.61326190476190479</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>31716</v>
       </c>
       <c r="B329">
-        <v>0.5966739130434781</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <v>0.59667391304347805</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>31746</v>
       </c>
@@ -3029,15 +3084,15 @@
         <v>0.5909052631578946</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>31777</v>
       </c>
       <c r="B331">
-        <v>0.6019</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>0.60189999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>31808</v>
       </c>
@@ -3045,7 +3100,7 @@
         <v>0.6128095238095238</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>31836</v>
       </c>
@@ -3053,79 +3108,79 @@
         <v>0.6184578947368421</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>31867</v>
       </c>
       <c r="B334">
-        <v>0.6368409090909091</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
+        <v>0.63684090909090907</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>31897</v>
       </c>
       <c r="B335">
-        <v>0.6242333333333333</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>0.62423333333333331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>31928</v>
       </c>
       <c r="B336">
-        <v>0.6578999999999999</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>0.65789999999999993</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>31958</v>
       </c>
       <c r="B337">
-        <v>0.6984727272727271</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
+        <v>0.69847272727272713</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>31989</v>
       </c>
       <c r="B338">
-        <v>0.7464318181818179</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <v>0.74643181818181792</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>32020</v>
       </c>
       <c r="B339">
-        <v>0.7711428571428571</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
+        <v>0.77114285714285713</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>32050</v>
       </c>
       <c r="B340">
-        <v>0.794452380952381</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>0.79445238095238102</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>32081</v>
       </c>
       <c r="B341">
-        <v>0.8240681818181819</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+        <v>0.82406818181818187</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>32111</v>
       </c>
       <c r="B342">
-        <v>1.01273</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>1.0127299999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>32142</v>
       </c>
@@ -3133,7 +3188,7 @@
         <v>1.221345454545455</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>32173</v>
       </c>
@@ -3141,63 +3196,63 @@
         <v>1.098625</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>32202</v>
       </c>
       <c r="B345">
-        <v>0.9572449999999998</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
+        <v>0.95724499999999979</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>32233</v>
       </c>
       <c r="B346">
-        <v>0.9719999999999998</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+        <v>0.97199999999999975</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>32263</v>
       </c>
       <c r="B347">
-        <v>0.9636600000000002</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
+        <v>0.96366000000000018</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>32294</v>
       </c>
       <c r="B348">
-        <v>0.9299047619047618</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
+        <v>0.92990476190476179</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>32324</v>
       </c>
       <c r="B349">
-        <v>1.0435</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <v>1.0435000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>32355</v>
       </c>
       <c r="B350">
-        <v>0.9510250000000001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+        <v>0.95102500000000012</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>32386</v>
       </c>
       <c r="B351">
-        <v>0.9606956521739128</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
+        <v>0.96069565217391284</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>32416</v>
       </c>
@@ -3205,23 +3260,23 @@
         <v>1.035714285714286</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>32447</v>
       </c>
       <c r="B353">
-        <v>1.253642857142857</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+        <v>1.2536428571428571</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>32477</v>
       </c>
       <c r="B354">
-        <v>1.405225</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
+        <v>1.4052249999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>32508</v>
       </c>
@@ -3229,23 +3284,23 @@
         <v>1.469380952380952</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>32539</v>
       </c>
       <c r="B356">
-        <v>1.428142857142857</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
+        <v>1.4281428571428569</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>32567</v>
       </c>
       <c r="B357">
-        <v>1.315436842105263</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
+        <v>1.3154368421052629</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>32598</v>
       </c>
@@ -3253,7 +3308,7 @@
         <v>1.373613636363636</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>32628</v>
       </c>
@@ -3261,15 +3316,15 @@
         <v>1.369235</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>32659</v>
       </c>
       <c r="B360">
-        <v>1.192295454545455</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
+        <v>1.1922954545454549</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>32689</v>
       </c>
@@ -3277,7 +3332,7 @@
         <v>1.097522727272727</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>32720</v>
       </c>
@@ -3285,7 +3340,7 @@
         <v>1.06515</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>32751</v>
       </c>
@@ -3293,15 +3348,15 @@
         <v>1.211934782608695</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>32781</v>
       </c>
       <c r="B364">
-        <v>1.2467</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
+        <v>1.2466999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>32812</v>
       </c>
@@ -3309,7 +3364,7 @@
         <v>1.240954545454545</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>32842</v>
       </c>
@@ -3317,7 +3372,7 @@
         <v>1.111790476190476</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>32873</v>
       </c>
@@ -3325,7 +3380,7 @@
         <v>1.055285</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>32904</v>
       </c>
@@ -3333,31 +3388,31 @@
         <v>1.033022727272727</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>32932</v>
       </c>
       <c r="B369">
-        <v>1.057321052631579</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
+        <v>1.0573210526315791</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>32963</v>
       </c>
       <c r="B370">
-        <v>1.164909090909091</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <v>1.1649090909090909</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>32993</v>
       </c>
       <c r="B371">
-        <v>1.17148</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <v>1.1714800000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>33024</v>
       </c>
@@ -3365,71 +3420,71 @@
         <v>1.140090909090909</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>33054</v>
       </c>
       <c r="B373">
-        <v>1.112947619047619</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <v>1.1129476190476191</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>33085</v>
       </c>
       <c r="B374">
-        <v>1.200214285714286</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>1.2002142857142859</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>33116</v>
       </c>
       <c r="B375">
-        <v>1.297427272727273</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <v>1.2974272727272731</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>33146</v>
       </c>
       <c r="B376">
-        <v>1.231894736842105</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
+        <v>1.2318947368421049</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>33177</v>
       </c>
       <c r="B377">
-        <v>1.176586956521739</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>1.1765869565217391</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>33207</v>
       </c>
       <c r="B378">
-        <v>1.144961904761905</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
+        <v>1.1449619047619051</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>33238</v>
       </c>
       <c r="B379">
-        <v>1.116884210526316</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <v>1.1168842105263159</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>33269</v>
       </c>
       <c r="B380">
-        <v>1.097431818181818</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <v>1.0974318181818179</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>33297</v>
       </c>
@@ -3437,39 +3492,39 @@
         <v>1.097031578947369</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>33328</v>
       </c>
       <c r="B382">
-        <v>1.077775</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>1.0777749999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>33358</v>
       </c>
       <c r="B383">
-        <v>1.086168181818182</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
+        <v>1.0861681818181821</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>33389</v>
       </c>
       <c r="B384">
-        <v>1.000318181818182</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
+        <v>1.0003181818181821</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>33419</v>
       </c>
       <c r="B385">
-        <v>0.99764</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
+        <v>0.99763999999999997</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>33450</v>
       </c>
@@ -3477,15 +3532,15 @@
         <v>1.000119047619048</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>33481</v>
       </c>
       <c r="B387">
-        <v>1.013413636363636</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
+        <v>1.0134136363636359</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>33511</v>
       </c>
@@ -3493,15 +3548,15 @@
         <v>1.04375</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>33542</v>
       </c>
       <c r="B389">
-        <v>1.053913043478261</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
+        <v>1.0539130434782611</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>33572</v>
       </c>
@@ -3509,15 +3564,15 @@
         <v>1.048745</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>33603</v>
       </c>
       <c r="B391">
-        <v>0.9836761904761905</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
+        <v>0.98367619047619048</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>33634</v>
       </c>
@@ -3525,7 +3580,7 @@
         <v>0.967409090909091</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>33663</v>
       </c>
@@ -3533,7 +3588,7 @@
         <v>1.006336842105263</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>33694</v>
       </c>
@@ -3541,23 +3596,23 @@
         <v>1.014840909090909</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>33724</v>
       </c>
       <c r="B395">
-        <v>1.005161904761905</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+        <v>1.0051619047619049</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>33755</v>
       </c>
       <c r="B396">
-        <v>1.00815</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
+        <v>1.0081500000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>33785</v>
       </c>
@@ -3565,15 +3620,15 @@
         <v>1.047663636363636</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>33816</v>
       </c>
       <c r="B398">
-        <v>1.13875</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+        <v>1.1387499999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>33847</v>
       </c>
@@ -3581,7 +3636,7 @@
         <v>1.127223809523809</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>33877</v>
       </c>
@@ -3589,15 +3644,15 @@
         <v>1.083833333333333</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>33908</v>
       </c>
       <c r="B401">
-        <v>1.008954545454546</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+        <v>1.0089545454545461</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>33938</v>
       </c>
@@ -3605,7 +3660,7 @@
         <v>0.965615</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>33969</v>
       </c>
@@ -3613,23 +3668,23 @@
         <v>0.9949818181818183</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>34000</v>
       </c>
       <c r="B404">
-        <v>1.012725</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
+        <v>1.0127250000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>34028</v>
       </c>
       <c r="B405">
-        <v>0.9859999999999999</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
+        <v>0.98599999999999988</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>34059</v>
       </c>
@@ -3637,7 +3692,7 @@
         <v>0.9645652173913043</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>34089</v>
       </c>
@@ -3645,23 +3700,23 @@
         <v>0.8737761904761906</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>34120</v>
       </c>
       <c r="B408">
-        <v>0.808175</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>0.80817499999999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>34150</v>
       </c>
       <c r="B409">
-        <v>0.832109090909091</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
+        <v>0.83210909090909102</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>34181</v>
       </c>
@@ -3669,15 +3724,15 @@
         <v>0.8644047619047619</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>34212</v>
       </c>
       <c r="B411">
-        <v>0.8515954545454547</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <v>0.85159545454545471</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>34242</v>
       </c>
@@ -3685,15 +3740,15 @@
         <v>0.8067749999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>34273</v>
       </c>
       <c r="B413">
-        <v>0.744</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>34303</v>
       </c>
@@ -3701,15 +3756,15 @@
         <v>0.7415750000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>34334</v>
       </c>
       <c r="B415">
-        <v>0.7931142857142858</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
+        <v>0.79311428571428577</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>34365</v>
       </c>
@@ -3717,39 +3772,39 @@
         <v>0.837952380952381</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>34393</v>
       </c>
       <c r="B417">
-        <v>0.8711421052631579</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
+        <v>0.87114210526315794</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>34424</v>
       </c>
       <c r="B418">
-        <v>0.8968478260869566</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
+        <v>0.89684782608695657</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>34454</v>
       </c>
       <c r="B419">
-        <v>0.8790631578947369</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
+        <v>0.87906315789473688</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>34485</v>
       </c>
       <c r="B420">
-        <v>1.000190476190476</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
+        <v>1.0001904761904761</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>34515</v>
       </c>
@@ -3757,7 +3812,7 @@
         <v>1.08735</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>34546</v>
       </c>
@@ -3765,15 +3820,15 @@
         <v>1.122225</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>34577</v>
       </c>
       <c r="B423">
-        <v>1.093417391304348</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
+        <v>1.0934173913043479</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>34607</v>
       </c>
@@ -3781,7 +3836,7 @@
         <v>1.161285714285714</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>34638</v>
       </c>
@@ -3789,15 +3844,15 @@
         <v>1.170809523809524</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>34668</v>
       </c>
       <c r="B426">
-        <v>1.290275</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
+        <v>1.2902750000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>34699</v>
       </c>
@@ -3805,7 +3860,7 @@
         <v>1.362419047619047</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>34730</v>
       </c>
@@ -3813,15 +3868,15 @@
         <v>1.380976190476191</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>34758</v>
       </c>
       <c r="B429">
-        <v>1.322178947368421</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
+        <v>1.3221789473684209</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>34789</v>
       </c>
@@ -3829,7 +3884,7 @@
         <v>1.351282608695652</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>34819</v>
       </c>
@@ -3837,47 +3892,47 @@
         <v>1.328910526315789</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>34850</v>
       </c>
       <c r="B432">
-        <v>1.260090909090909</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
+        <v>1.2600909090909089</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>34880</v>
       </c>
       <c r="B433">
-        <v>1.369627272727273</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+        <v>1.3696272727272729</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>34911</v>
       </c>
       <c r="B434">
-        <v>1.359868421052632</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
+        <v>1.3598684210526319</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>34942</v>
       </c>
       <c r="B435">
-        <v>1.376860869565217</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
+        <v>1.3768608695652169</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>34972</v>
       </c>
       <c r="B436">
-        <v>1.307575</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
+        <v>1.3075749999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>35003</v>
       </c>
@@ -3885,31 +3940,31 @@
         <v>1.256840909090909</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>35033</v>
       </c>
       <c r="B438">
-        <v>1.318285</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
+        <v>1.3182849999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>35064</v>
       </c>
       <c r="B439">
-        <v>1.27821</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
+        <v>1.2782100000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>35095</v>
       </c>
       <c r="B440">
-        <v>1.143095238095238</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
+        <v>1.1430952380952379</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>35124</v>
       </c>
@@ -3917,7 +3972,7 @@
         <v>1.15419</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>35155</v>
       </c>
@@ -3925,7 +3980,7 @@
         <v>1.171238095238095</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>35185</v>
       </c>
@@ -3933,7 +3988,7 @@
         <v>1.183295238095238</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>35216</v>
       </c>
@@ -3941,23 +3996,23 @@
         <v>1.190636363636363</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>35246</v>
       </c>
       <c r="B445">
-        <v>0.9818449999999999</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
+        <v>0.98184499999999986</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>35277</v>
       </c>
       <c r="B446">
-        <v>0.8998809523809521</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
+        <v>0.89988095238095211</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>35308</v>
       </c>
@@ -3965,47 +4020,47 @@
         <v>0.9171499999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>35338</v>
       </c>
       <c r="B448">
-        <v>0.8946250000000001</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
+        <v>0.89462500000000011</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>35369</v>
       </c>
       <c r="B449">
-        <v>0.9136521739130434</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
+        <v>0.91365217391304343</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>35399</v>
       </c>
       <c r="B450">
-        <v>0.9995368421052633</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
+        <v>0.99953684210526328</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>35430</v>
       </c>
       <c r="B451">
-        <v>1.015804761904762</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
+        <v>1.0158047619047621</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>35461</v>
       </c>
       <c r="B452">
-        <v>1.0515</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
+        <v>1.0515000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>35489</v>
       </c>
@@ -4013,23 +4068,23 @@
         <v>1.092810526315789</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>35520</v>
       </c>
       <c r="B454">
-        <v>1.1095</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
+        <v>1.1094999999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>35550</v>
       </c>
       <c r="B455">
-        <v>1.085531818181818</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
+        <v>1.0855318181818181</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>35581</v>
       </c>
@@ -4037,7 +4092,7 @@
         <v>1.148333333333333</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>35611</v>
       </c>
@@ -4045,15 +4100,15 @@
         <v>1.174671428571429</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>35642</v>
       </c>
       <c r="B458">
-        <v>1.074136363636364</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
+        <v>1.0741363636363641</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>35673</v>
       </c>
@@ -4061,79 +4116,79 @@
         <v>1.022276190476191</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>35703</v>
       </c>
       <c r="B460">
-        <v>0.9638809523809523</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>0.96388095238095228</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>35734</v>
       </c>
       <c r="B461">
-        <v>0.9395652173913043</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
+        <v>0.93956521739130427</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>35764</v>
       </c>
       <c r="B462">
-        <v>0.8770611111111113</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+        <v>0.87706111111111129</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>35795</v>
       </c>
       <c r="B463">
-        <v>0.7982772727272728</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
+        <v>0.79827727272727278</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>35826</v>
       </c>
       <c r="B464">
-        <v>0.7780249999999999</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
+        <v>0.77802499999999986</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>35854</v>
       </c>
       <c r="B465">
-        <v>0.7590421052631579</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
+        <v>0.75904210526315785</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>35885</v>
       </c>
       <c r="B466">
-        <v>0.8052272727272727</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
+        <v>0.80522727272727268</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>35915</v>
       </c>
       <c r="B467">
-        <v>0.8185952380952383</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
+        <v>0.81859523809523826</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>35946</v>
       </c>
       <c r="B468">
-        <v>0.7866250000000001</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
+        <v>0.78662500000000013</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>35976</v>
       </c>
@@ -4141,271 +4196,271 @@
         <v>0.7516954545454545</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>36007</v>
       </c>
       <c r="B470">
-        <v>0.7590454545454545</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
+        <v>0.75904545454545447</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>36038</v>
       </c>
       <c r="B471">
-        <v>0.733852380952381</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
+        <v>0.73385238095238103</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>36068</v>
       </c>
       <c r="B472">
-        <v>0.7559047619047619</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
+        <v>0.75590476190476186</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>36099</v>
       </c>
       <c r="B473">
-        <v>0.725840909090909</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
+        <v>0.72584090909090904</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>36129</v>
       </c>
       <c r="B474">
-        <v>0.7179842105263156</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
+        <v>0.71798421052631556</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>36160</v>
       </c>
       <c r="B475">
-        <v>0.6676090909090909</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
+        <v>0.66760909090909093</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>36191</v>
       </c>
       <c r="B476">
-        <v>0.6564473684210527</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
+        <v>0.65644736842105267</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>36219</v>
       </c>
       <c r="B477">
-        <v>0.6424105263157894</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
+        <v>0.64241052631578943</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>36250</v>
       </c>
       <c r="B478">
-        <v>0.6318260869565216</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
+        <v>0.63182608695652165</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>36280</v>
       </c>
       <c r="B479">
-        <v>0.6738761904761906</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
+        <v>0.67387619047619063</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>36311</v>
       </c>
       <c r="B480">
-        <v>0.6974500000000001</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>0.69745000000000013</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>36341</v>
       </c>
       <c r="B481">
-        <v>0.6548909090909091</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
+        <v>0.65489090909090908</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>36372</v>
       </c>
       <c r="B482">
-        <v>0.7654047619047619</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
+        <v>0.76540476190476192</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>36403</v>
       </c>
       <c r="B483">
-        <v>0.7621000000000001</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
+        <v>0.76210000000000011</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>36433</v>
       </c>
       <c r="B484">
-        <v>0.8198571428571428</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
+        <v>0.81985714285714284</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>36464</v>
       </c>
       <c r="B485">
-        <v>0.7989523809523809</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
+        <v>0.79895238095238086</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>36494</v>
       </c>
       <c r="B486">
-        <v>0.7939300000000001</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
+        <v>0.79393000000000014</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>36525</v>
       </c>
       <c r="B487">
-        <v>0.8192190476190477</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
+        <v>0.81921904761904774</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>36556</v>
       </c>
       <c r="B488">
-        <v>0.8552894736842105</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
+        <v>0.85528947368421049</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>36585</v>
       </c>
       <c r="B489">
-        <v>0.8278550000000001</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
+        <v>0.82785500000000012</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>36616</v>
       </c>
       <c r="B490">
-        <v>0.8051304347826087</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
+        <v>0.80513043478260871</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>36646</v>
       </c>
       <c r="B491">
-        <v>0.7763052631578947</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
+        <v>0.77630526315789472</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>36677</v>
       </c>
       <c r="B492">
-        <v>0.8313181818181817</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
+        <v>0.83131818181818173</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>36707</v>
       </c>
       <c r="B493">
-        <v>0.8110454545454545</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
+        <v>0.81104545454545451</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>36738</v>
       </c>
       <c r="B494">
-        <v>0.8449473684210528</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
+        <v>0.84494736842105278</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>36769</v>
       </c>
       <c r="B495">
-        <v>0.8685521739130435</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
+        <v>0.86855217391304351</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>36799</v>
       </c>
       <c r="B496">
-        <v>0.9227250000000001</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
+        <v>0.92272500000000013</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>36830</v>
       </c>
       <c r="B497">
-        <v>0.8788181818181818</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
+        <v>0.87881818181818183</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>36860</v>
       </c>
       <c r="B498">
-        <v>0.8336950000000002</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2">
+        <v>0.83369500000000019</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>36891</v>
       </c>
       <c r="B499">
-        <v>0.8694749999999999</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
+        <v>0.86947499999999989</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>36922</v>
       </c>
       <c r="B500">
-        <v>0.8334285714285714</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
+        <v>0.83342857142857141</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>36950</v>
       </c>
       <c r="B501">
-        <v>0.8203473684210527</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
+        <v>0.82034736842105271</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>36981</v>
       </c>
       <c r="B502">
-        <v>0.8068863636363637</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
+        <v>0.80688636363636368</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>37011</v>
       </c>
@@ -4413,47 +4468,47 @@
         <v>0.7664700000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>37042</v>
       </c>
       <c r="B504">
-        <v>0.7763409090909089</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
+        <v>0.77634090909090891</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>37072</v>
       </c>
       <c r="B505">
-        <v>0.7291190476190476</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
+        <v>0.72911904761904756</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>37103</v>
       </c>
       <c r="B506">
-        <v>0.7010714285714285</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
+        <v>0.70107142857142846</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>37134</v>
       </c>
       <c r="B507">
-        <v>0.6765739130434784</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
+        <v>0.67657391304347836</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>37164</v>
       </c>
       <c r="B508">
-        <v>0.6598235294117646</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
+        <v>0.65982352941176459</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>37195</v>
       </c>
@@ -4461,135 +4516,135 @@
         <v>0.636695652173913</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>37225</v>
       </c>
       <c r="B510">
-        <v>0.6630900000000001</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
+        <v>0.66309000000000007</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>37256</v>
       </c>
       <c r="B511">
-        <v>0.6813052631578949</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
+        <v>0.68130526315789486</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>37287</v>
       </c>
       <c r="B512">
-        <v>0.7020000000000001</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
+        <v>0.70200000000000007</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>37315</v>
       </c>
       <c r="B513">
-        <v>0.7245526315789474</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
+        <v>0.72455263157894745</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>37346</v>
       </c>
       <c r="B514">
-        <v>0.7499500000000001</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
+        <v>0.74995000000000012</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>37376</v>
       </c>
       <c r="B515">
-        <v>0.7333909090909091</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
+        <v>0.73339090909090909</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>37407</v>
       </c>
       <c r="B516">
-        <v>0.73675</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
+        <v>0.73675000000000002</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>37437</v>
       </c>
       <c r="B517">
-        <v>0.764655</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
+        <v>0.76465499999999997</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>37468</v>
       </c>
       <c r="B518">
-        <v>0.7281904761904762</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
+        <v>0.72819047619047617</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>37499</v>
       </c>
       <c r="B519">
-        <v>0.6806499999999999</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
+        <v>0.68064999999999987</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>37529</v>
       </c>
       <c r="B520">
-        <v>0.68485</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
+        <v>0.68484999999999996</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>37560</v>
       </c>
       <c r="B521">
-        <v>0.6864130434782608</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
+        <v>0.68641304347826082</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>37590</v>
       </c>
       <c r="B522">
-        <v>0.7274894736842107</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
+        <v>0.72748947368421069</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>37621</v>
       </c>
       <c r="B523">
-        <v>0.7261857142857142</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
+        <v>0.72618571428571421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>37652</v>
       </c>
       <c r="B524">
-        <v>0.7576190476190474</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
+        <v>0.75761904761904741</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>37680</v>
       </c>
       <c r="B525">
-        <v>0.7715263157894736</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
+        <v>0.77152631578947362</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>37711</v>
       </c>
@@ -4597,15 +4652,15 @@
         <v>0.7606666666666666</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>37741</v>
       </c>
       <c r="B527">
-        <v>0.7233476190476192</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
+        <v>0.72334761904761924</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>37772</v>
       </c>
@@ -4613,15 +4668,15 @@
         <v>0.7543333333333333</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>37802</v>
       </c>
       <c r="B529">
-        <v>0.7711952380952383</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
+        <v>0.77119523809523827</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>37833</v>
       </c>
@@ -4629,47 +4684,47 @@
         <v>0.7843181818181818</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>37864</v>
       </c>
       <c r="B531">
-        <v>0.8019428571428572</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
+        <v>0.80194285714285718</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>37894</v>
       </c>
       <c r="B532">
-        <v>0.8245952380952382</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
+        <v>0.82459523809523816</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>37925</v>
       </c>
       <c r="B533">
-        <v>0.8839347826086958</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2">
+        <v>0.88393478260869585</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>37955</v>
       </c>
       <c r="B534">
-        <v>0.9275555555555555</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
+        <v>0.92755555555555547</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>37986</v>
       </c>
       <c r="B535">
-        <v>0.9967761904761904</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
+        <v>0.99677619047619037</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>38017</v>
       </c>
@@ -4677,15 +4732,15 @@
         <v>1.104526315789474</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>38046</v>
       </c>
       <c r="B537">
-        <v>1.252215789473684</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2">
+        <v>1.2522157894736841</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>38077</v>
       </c>
@@ -4693,15 +4748,15 @@
         <v>1.342956521739131</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>38107</v>
       </c>
       <c r="B539">
-        <v>1.279733333333333</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
+        <v>1.2797333333333329</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>38138</v>
       </c>
@@ -4709,23 +4764,23 @@
         <v>1.209125</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>38168</v>
       </c>
       <c r="B541">
-        <v>1.207085714285714</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2">
+        <v>1.2070857142857141</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>38199</v>
       </c>
       <c r="B542">
-        <v>1.267690476190476</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2">
+        <v>1.2676904761904759</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>38230</v>
       </c>
@@ -4733,7 +4788,7 @@
         <v>1.274781818181818</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>38260</v>
       </c>
@@ -4741,31 +4796,31 @@
         <v>1.312357142857143</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>38291</v>
       </c>
       <c r="B545">
-        <v>1.344952380952381</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2">
+        <v>1.3449523809523809</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>38321</v>
       </c>
       <c r="B546">
-        <v>1.385625</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
+        <v>1.3856250000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>38352</v>
       </c>
       <c r="B547">
-        <v>1.419085714285714</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
+        <v>1.4190857142857141</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>38383</v>
       </c>
@@ -4773,7 +4828,7 @@
         <v>1.407125</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>38411</v>
       </c>
@@ -4781,15 +4836,15 @@
         <v>1.440647368421053</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>38442</v>
       </c>
       <c r="B550">
-        <v>1.484931818181818</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
+        <v>1.4849318181818181</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>38472</v>
       </c>
@@ -4797,23 +4852,23 @@
         <v>1.47917619047619</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>38503</v>
       </c>
       <c r="B552">
-        <v>1.41197619047619</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2">
+        <v>1.4119761904761901</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>38533</v>
       </c>
       <c r="B553">
-        <v>1.559609090909091</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
+        <v>1.5596090909090909</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>38564</v>
       </c>
@@ -4821,7 +4876,7 @@
         <v>1.57125</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>38595</v>
       </c>
@@ -4829,7 +4884,7 @@
         <v>1.662873913043478</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>38625</v>
       </c>
@@ -4837,7 +4892,7 @@
         <v>1.668809523809524</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>38656</v>
       </c>
@@ -4845,15 +4900,15 @@
         <v>1.798071428571429</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>38686</v>
       </c>
       <c r="B558">
-        <v>1.910035</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2">
+        <v>1.9100349999999999</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>38717</v>
       </c>
@@ -4861,7 +4916,7 @@
         <v>2.09942380952381</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>38748</v>
       </c>
@@ -4869,87 +4924,87 @@
         <v>2.129575</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>38776</v>
       </c>
       <c r="B561">
-        <v>2.245084210526316</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
+        <v>2.2450842105263158</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>38807</v>
       </c>
       <c r="B562">
-        <v>2.309521739130434</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2">
+        <v>2.3095217391304339</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>38837</v>
       </c>
       <c r="B563">
-        <v>2.907588888888889</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
+        <v>2.9075888888888888</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>38868</v>
       </c>
       <c r="B564">
-        <v>3.622454545454545</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
+        <v>3.6224545454545449</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>38898</v>
       </c>
       <c r="B565">
-        <v>3.296736363636363</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
+        <v>3.2967363636363629</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>38929</v>
       </c>
       <c r="B566">
-        <v>3.538421052631578</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
+        <v>3.5384210526315778</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>38960</v>
       </c>
       <c r="B567">
-        <v>3.507052173913044</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
+        <v>3.5070521739130438</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>38990</v>
       </c>
       <c r="B568">
-        <v>3.458625</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
+        <v>3.4586250000000001</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>39021</v>
       </c>
       <c r="B569">
-        <v>3.40609090909091</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
+        <v>3.4060909090909099</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>39051</v>
       </c>
       <c r="B570">
-        <v>3.173474999999999</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
+        <v>3.1734749999999989</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>39082</v>
       </c>
@@ -4957,15 +5012,15 @@
         <v>3.020295</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>39113</v>
       </c>
       <c r="B572">
-        <v>2.582600000000001</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
+        <v>2.5826000000000011</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>39141</v>
       </c>
@@ -4973,31 +5028,31 @@
         <v>2.605926315789473</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>39172</v>
       </c>
       <c r="B574">
-        <v>2.929590909090909</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
+        <v>2.9295909090909089</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>39202</v>
       </c>
       <c r="B575">
-        <v>3.514455</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
+        <v>3.5144549999999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>39233</v>
       </c>
       <c r="B576">
-        <v>3.484636363636363</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
+        <v>3.4846363636363629</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>39263</v>
       </c>
@@ -5005,79 +5060,79 @@
         <v>3.386161904761904</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>39294</v>
       </c>
       <c r="B578">
-        <v>3.594190476190476</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
+        <v>3.5941904761904762</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>39325</v>
       </c>
       <c r="B579">
-        <v>3.349426086956522</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2">
+        <v>3.3494260869565222</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>39355</v>
       </c>
       <c r="B580">
-        <v>3.459026315789474</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2">
+        <v>3.4590263157894738</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>39386</v>
       </c>
       <c r="B581">
-        <v>3.601869565217391</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2">
+        <v>3.6018695652173909</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>39416</v>
       </c>
       <c r="B582">
-        <v>3.134304761904762</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2">
+        <v>3.1343047619047621</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>39447</v>
       </c>
       <c r="B583">
-        <v>3.02965</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2">
+        <v>3.0296500000000002</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>39478</v>
       </c>
       <c r="B584">
-        <v>3.215452380952381</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
+        <v>3.2154523809523812</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>39507</v>
       </c>
       <c r="B585">
-        <v>3.59344</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
+        <v>3.5934400000000002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>39538</v>
       </c>
       <c r="B586">
-        <v>3.789789473684211</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
+        <v>3.7897894736842108</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>39568</v>
       </c>
@@ -5085,23 +5140,23 @@
         <v>3.911309090909092</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>39599</v>
       </c>
       <c r="B588">
-        <v>3.751599999999999</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
+        <v>3.7515999999999989</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>39629</v>
       </c>
       <c r="B589">
-        <v>3.687035</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
+        <v>3.6870349999999998</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>39660</v>
       </c>
@@ -5109,23 +5164,23 @@
         <v>3.720071428571428</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>39691</v>
       </c>
       <c r="B591">
-        <v>3.402409523809523</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
+        <v>3.4024095238095229</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>39721</v>
       </c>
       <c r="B592">
-        <v>3.122785714285714</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
+        <v>3.1227857142857141</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>39752</v>
       </c>
@@ -5133,39 +5188,39 @@
         <v>2.185704545454545</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>39782</v>
       </c>
       <c r="B594">
-        <v>1.691552631578947</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
+        <v>1.6915526315789471</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>39813</v>
       </c>
       <c r="B595">
-        <v>1.39965</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
+        <v>1.3996500000000001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>39844</v>
       </c>
       <c r="B596">
-        <v>1.4928</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2">
+        <v>1.4927999999999999</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>39872</v>
       </c>
       <c r="B597">
-        <v>1.511216666666667</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2">
+        <v>1.5112166666666671</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>39903</v>
       </c>
@@ -5173,7 +5228,7 @@
         <v>1.724454545454545</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>39933</v>
       </c>
@@ -5181,95 +5236,95 @@
         <v>2.038647619047619</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>39964</v>
       </c>
       <c r="B600">
-        <v>2.103375</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
+        <v>2.1033750000000002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>39994</v>
       </c>
       <c r="B601">
-        <v>2.287813636363637</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
+        <v>2.2878136363636372</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>40025</v>
       </c>
       <c r="B602">
-        <v>2.394568181818182</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
+        <v>2.3945681818181819</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>40056</v>
       </c>
       <c r="B603">
-        <v>2.815747619047618</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
+        <v>2.8157476190476181</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>40086</v>
       </c>
       <c r="B604">
-        <v>2.830904761904761</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
+        <v>2.8309047619047609</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>40117</v>
       </c>
       <c r="B605">
-        <v>2.881166666666667</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
+        <v>2.8811666666666671</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>40147</v>
       </c>
       <c r="B606">
-        <v>3.04058</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
+        <v>3.0405799999999998</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>40178</v>
       </c>
       <c r="B607">
-        <v>3.193349999999999</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
+        <v>3.1933499999999988</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>40209</v>
       </c>
       <c r="B608">
-        <v>3.345638888888889</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
+        <v>3.3456388888888888</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>40237</v>
       </c>
       <c r="B609">
-        <v>3.118294444444445</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
+        <v>3.1182944444444449</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>40268</v>
       </c>
       <c r="B610">
-        <v>3.406239130434783</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
+        <v>3.4062391304347832</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>40298</v>
       </c>
@@ -5277,15 +5332,15 @@
         <v>3.524142857142857</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>40329</v>
       </c>
       <c r="B612">
-        <v>3.1167</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
+        <v>3.1166999999999998</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>40359</v>
       </c>
@@ -5293,55 +5348,55 @@
         <v>2.942609090909091</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>40390</v>
       </c>
       <c r="B614">
-        <v>3.070619047619047</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2">
+        <v>3.0706190476190471</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>40421</v>
       </c>
       <c r="B615">
-        <v>3.322609090909091</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2">
+        <v>3.3226090909090908</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>40451</v>
       </c>
       <c r="B616">
-        <v>3.520631578947368</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
+        <v>3.5206315789473681</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>40482</v>
       </c>
       <c r="B617">
-        <v>3.778809523809523</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
+        <v>3.7788095238095232</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>40512</v>
       </c>
       <c r="B618">
-        <v>3.8452</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
+        <v>3.8452000000000002</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>40543</v>
       </c>
       <c r="B619">
-        <v>4.172813636363636</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2">
+        <v>4.1728136363636361</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>40574</v>
       </c>
@@ -5349,39 +5404,39 @@
         <v>4.352549999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>40602</v>
       </c>
       <c r="B621">
-        <v>4.498273684210527</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2">
+        <v>4.4982736842105266</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>40633</v>
       </c>
       <c r="B622">
-        <v>4.332090909090909</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2">
+        <v>4.3320909090909092</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>40663</v>
       </c>
       <c r="B623">
-        <v>4.302378947368421</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2">
+        <v>4.3023789473684211</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>40694</v>
       </c>
       <c r="B624">
-        <v>4.063642857142857</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2">
+        <v>4.0636428571428569</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>40724</v>
       </c>
@@ -5389,111 +5444,111 @@
         <v>4.111781818181818</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>40755</v>
       </c>
       <c r="B626">
-        <v>4.408774999999999</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2">
+        <v>4.4087749999999986</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>40786</v>
       </c>
       <c r="B627">
-        <v>4.082391304347825</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
+        <v>4.0823913043478246</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>40816</v>
       </c>
       <c r="B628">
-        <v>3.749928571428571</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2">
+        <v>3.7499285714285708</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>40847</v>
       </c>
       <c r="B629">
-        <v>3.348261904761905</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2">
+        <v>3.3482619047619049</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>40877</v>
       </c>
       <c r="B630">
-        <v>3.4447</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2">
+        <v>3.4447000000000001</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>40908</v>
       </c>
       <c r="B631">
-        <v>3.435104761904762</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2">
+        <v>3.4351047619047619</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>40939</v>
       </c>
       <c r="B632">
-        <v>3.672775</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2">
+        <v>3.6727750000000001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>40968</v>
       </c>
       <c r="B633">
-        <v>3.84946</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2">
+        <v>3.8494600000000001</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>40999</v>
       </c>
       <c r="B634">
-        <v>3.843571428571429</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2">
+        <v>3.8435714285714289</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>41029</v>
       </c>
       <c r="B635">
-        <v>3.721869999999999</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2">
+        <v>3.7218699999999991</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>41060</v>
       </c>
       <c r="B636">
-        <v>3.56875</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2">
+        <v>3.5687500000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>41090</v>
       </c>
       <c r="B637">
-        <v>3.348942857142857</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2">
+        <v>3.3489428571428572</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>41121</v>
       </c>
       <c r="B638">
-        <v>3.441190476190476</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2">
+        <v>3.4411904761904761</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>41152</v>
       </c>
@@ -5501,7 +5556,7 @@
         <v>3.413313043478261</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>41182</v>
       </c>
@@ -5509,7 +5564,7 @@
         <v>3.706473684210525</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>41213</v>
       </c>
@@ -5517,7 +5572,7 @@
         <v>3.669681818181818</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>41243</v>
       </c>
@@ -5525,7 +5580,7 @@
         <v>3.503571428571429</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>41274</v>
       </c>
@@ -5533,23 +5588,23 @@
         <v>3.628905</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>41305</v>
       </c>
       <c r="B644">
-        <v>3.681047619047619</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2">
+        <v>3.6810476190476189</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>41333</v>
       </c>
       <c r="B645">
-        <v>3.673599999999999</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2">
+        <v>3.6735999999999991</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>41364</v>
       </c>
@@ -5557,15 +5612,15 @@
         <v>3.480375</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>41394</v>
       </c>
       <c r="B647">
-        <v>3.27874090909091</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2">
+        <v>3.2787409090909101</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>41425</v>
       </c>
@@ -5573,15 +5628,15 @@
         <v>3.300431818181818</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>41455</v>
       </c>
       <c r="B649">
-        <v>3.18044</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2">
+        <v>3.1804399999999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>41486</v>
       </c>
@@ -5589,79 +5644,79 @@
         <v>3.135409090909091</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>41517</v>
       </c>
       <c r="B651">
-        <v>3.281136363636363</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2">
+        <v>3.2811363636363629</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>41547</v>
       </c>
       <c r="B652">
-        <v>3.271975</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2">
+        <v>3.2719749999999999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>41578</v>
       </c>
       <c r="B653">
-        <v>3.287978260869565</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2">
+        <v>3.2879782608695649</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>41608</v>
       </c>
       <c r="B654">
-        <v>3.21341</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2">
+        <v>3.2134100000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>41639</v>
       </c>
       <c r="B655">
-        <v>3.321485714285714</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2">
+        <v>3.3214857142857142</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>41670</v>
       </c>
       <c r="B656">
-        <v>3.313666666666667</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2">
+        <v>3.3136666666666672</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>41698</v>
       </c>
       <c r="B657">
-        <v>3.239368421052632</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2">
+        <v>3.2393684210526321</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>41729</v>
       </c>
       <c r="B658">
-        <v>3.0126</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2">
+        <v>3.0125999999999999</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>41759</v>
       </c>
       <c r="B659">
-        <v>3.049861904761905</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2">
+        <v>3.0498619047619049</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>41790</v>
       </c>
@@ -5669,15 +5724,15 @@
         <v>3.118095238095238</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>41820</v>
       </c>
       <c r="B661">
-        <v>3.099580952380953</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2">
+        <v>3.0995809523809532</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>41851</v>
       </c>
@@ -5685,7 +5740,7 @@
         <v>3.237477272727272</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>41882</v>
       </c>
@@ -5693,7 +5748,7 @@
         <v>3.164776190476192</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>41912</v>
       </c>
@@ -5701,55 +5756,55 @@
         <v>3.096166666666667</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>41943</v>
       </c>
       <c r="B665">
-        <v>3.034173913043478</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2">
+        <v>3.0341739130434782</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>41973</v>
       </c>
       <c r="B666">
-        <v>3.010163157894737</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2">
+        <v>3.0101631578947372</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>42004</v>
       </c>
       <c r="B667">
-        <v>2.893176190476191</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2">
+        <v>2.8931761904761908</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>42035</v>
       </c>
       <c r="B668">
-        <v>2.627421052631579</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2">
+        <v>2.6274210526315791</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>42063</v>
       </c>
       <c r="B669">
-        <v>2.601394736842105</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2">
+        <v>2.6013947368421051</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>42094</v>
       </c>
       <c r="B670">
-        <v>2.694272727272727</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2">
+        <v>2.6942727272727272</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>42124</v>
       </c>
@@ -5757,7 +5812,7 @@
         <v>2.743638095238095</v>
       </c>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>42155</v>
       </c>
@@ -5765,31 +5820,31 @@
         <v>2.871775</v>
       </c>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>42185</v>
       </c>
       <c r="B673">
-        <v>2.655813636363637</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2">
+        <v>2.6558136363636371</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>42216</v>
       </c>
       <c r="B674">
-        <v>2.477636363636363</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2">
+        <v>2.4776363636363632</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>42247</v>
       </c>
       <c r="B675">
-        <v>2.326500000000001</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2">
+        <v>2.3265000000000011</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>42277</v>
       </c>
@@ -5797,23 +5852,23 @@
         <v>2.363428571428571</v>
       </c>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>42308</v>
       </c>
       <c r="B677">
-        <v>2.366204545454545</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2">
+        <v>2.3662045454545448</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>42338</v>
       </c>
       <c r="B678">
-        <v>2.15637</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2">
+        <v>2.1563699999999999</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>42369</v>
       </c>
@@ -5821,87 +5876,87 @@
         <v>2.086018181818182</v>
       </c>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>42400</v>
       </c>
       <c r="B680">
-        <v>2.014105263157895</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2">
+        <v>2.0141052631578948</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>42429</v>
       </c>
       <c r="B681">
-        <v>2.077475</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2">
+        <v>2.0774750000000002</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>42460</v>
       </c>
       <c r="B682">
-        <v>2.235</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2">
+        <v>2.2349999999999999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>42490</v>
       </c>
       <c r="B683">
-        <v>2.183138095238095</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2">
+        <v>2.1831380952380952</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>42521</v>
       </c>
       <c r="B684">
-        <v>2.111380952380952</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2">
+        <v>2.1113809523809519</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>42551</v>
       </c>
       <c r="B685">
-        <v>2.096931818181819</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2">
+        <v>2.0969318181818188</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>42582</v>
       </c>
       <c r="B686">
-        <v>2.208975</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2">
+        <v>2.2089750000000001</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>42613</v>
       </c>
       <c r="B687">
-        <v>2.142408695652175</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2">
+        <v>2.1424086956521751</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>42643</v>
       </c>
       <c r="B688">
-        <v>2.144666666666667</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2">
+        <v>2.1446666666666672</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>42674</v>
       </c>
       <c r="B689">
-        <v>2.146380952380953</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2">
+        <v>2.1463809523809529</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>42704</v>
       </c>
@@ -5909,23 +5964,23 @@
         <v>2.46917619047619</v>
       </c>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>42735</v>
       </c>
       <c r="B691">
-        <v>2.567861904761905</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2">
+        <v>2.5678619047619051</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>42766</v>
       </c>
       <c r="B692">
-        <v>2.627000000000001</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2">
+        <v>2.6270000000000011</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>42794</v>
       </c>
@@ -5933,7 +5988,7 @@
         <v>2.699357894736842</v>
       </c>
     </row>
-    <row r="694" spans="1:2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>42825</v>
       </c>
@@ -5941,15 +5996,15 @@
         <v>2.650260869565217</v>
       </c>
     </row>
-    <row r="695" spans="1:2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>42855</v>
       </c>
       <c r="B695">
-        <v>2.588784210526316</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2">
+        <v>2.5887842105263159</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>42886</v>
       </c>
@@ -5957,95 +6012,95 @@
         <v>2.555863636363636</v>
       </c>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>42916</v>
       </c>
       <c r="B697">
-        <v>2.604645454545454</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2">
+        <v>2.6046454545454538</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>42947</v>
       </c>
       <c r="B698">
-        <v>2.736</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2">
+        <v>2.7360000000000002</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>42978</v>
       </c>
       <c r="B699">
-        <v>2.9602</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2">
+        <v>2.9601999999999999</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>43008</v>
       </c>
       <c r="B700">
-        <v>3.004025</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2">
+        <v>3.0040249999999999</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>43039</v>
       </c>
       <c r="B701">
-        <v>3.109204545454546</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2">
+        <v>3.1092045454545461</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>43069</v>
       </c>
       <c r="B702">
-        <v>3.099619047619048</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2">
+        <v>3.0996190476190479</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>43100</v>
       </c>
       <c r="B703">
-        <v>3.10624</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2">
+        <v>3.1062400000000001</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>43131</v>
       </c>
       <c r="B704">
-        <v>3.213428571428571</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2">
+        <v>3.2134285714285711</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>43159</v>
       </c>
       <c r="B705">
-        <v>3.177042105263158</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2">
+        <v>3.1770421052631579</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>43190</v>
       </c>
       <c r="B706">
-        <v>3.082404761904762</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2">
+        <v>3.0824047619047619</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>43220</v>
       </c>
       <c r="B707">
-        <v>3.093714285714287</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2">
+        <v>3.0937142857142872</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>43251</v>
       </c>
@@ -6053,7 +6108,7 @@
         <v>3.078727272727273</v>
       </c>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>43281</v>
       </c>
@@ -6061,15 +6116,15 @@
         <v>3.121080952380952</v>
       </c>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>43312</v>
       </c>
       <c r="B710">
-        <v>2.801785714285714</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2">
+        <v>2.8017857142857139</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>43343</v>
       </c>
@@ -6077,15 +6132,15 @@
         <v>2.701952173913043</v>
       </c>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>43373</v>
       </c>
       <c r="B712">
-        <v>2.711026315789474</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2">
+        <v>2.7110263157894741</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>43404</v>
       </c>
@@ -6093,31 +6148,31 @@
         <v>2.767673913043478</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>43434</v>
       </c>
       <c r="B714">
-        <v>2.750742857142857</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2">
+        <v>2.7507428571428569</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>43465</v>
       </c>
       <c r="B715">
-        <v>2.723375</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2">
+        <v>2.7233749999999999</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>43496</v>
       </c>
       <c r="B716">
-        <v>2.670214285714286</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2">
+        <v>2.6702142857142861</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>43524</v>
       </c>
@@ -6125,7 +6180,7 @@
         <v>2.853315789473684</v>
       </c>
     </row>
-    <row r="718" spans="1:2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>43555</v>
       </c>
@@ -6133,7 +6188,7 @@
         <v>2.902047619047619</v>
       </c>
     </row>
-    <row r="719" spans="1:2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>43585</v>
       </c>
@@ -6141,15 +6196,15 @@
         <v>2.915114285714286</v>
       </c>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>43616</v>
       </c>
       <c r="B720">
-        <v>2.734636363636364</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2">
+        <v>2.7346363636363642</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>43646</v>
       </c>
@@ -6157,7 +6212,7 @@
         <v>2.676075</v>
       </c>
     </row>
-    <row r="722" spans="1:2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>43677</v>
       </c>
@@ -6165,31 +6220,31 @@
         <v>2.69225</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>43708</v>
       </c>
       <c r="B723">
-        <v>2.578359090909091</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2">
+        <v>2.5783590909090912</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>43738</v>
       </c>
       <c r="B724">
-        <v>2.614399999999999</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2">
+        <v>2.6143999999999989</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>43769</v>
       </c>
       <c r="B725">
-        <v>2.620260869565218</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2">
+        <v>2.6202608695652181</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>43799</v>
       </c>
@@ -6197,7 +6252,7 @@
         <v>2.658175</v>
       </c>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>43830</v>
       </c>
@@ -6205,23 +6260,23 @@
         <v>2.766838095238096</v>
       </c>
     </row>
-    <row r="728" spans="1:2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>43861</v>
       </c>
       <c r="B728">
-        <v>2.745500000000001</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2">
+        <v>2.7455000000000012</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>43890</v>
       </c>
       <c r="B729">
-        <v>2.576994736842105</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2">
+        <v>2.5769947368421051</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>43921</v>
       </c>
@@ -6229,15 +6284,15 @@
         <v>2.354090909090909</v>
       </c>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>43951</v>
       </c>
       <c r="B731">
-        <v>2.288552380952381</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2">
+        <v>2.2885523809523809</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>43982</v>
       </c>
@@ -6245,31 +6300,31 @@
         <v>2.379599999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>44012</v>
       </c>
       <c r="B733">
-        <v>2.596763636363637</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2">
+        <v>2.5967636363636371</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>44043</v>
       </c>
       <c r="B734">
-        <v>2.878977272727272</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2">
+        <v>2.8789772727272722</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <v>44074</v>
       </c>
       <c r="B735">
-        <v>2.922942857142857</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
+        <v>2.9229428571428571</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <v>44104</v>
       </c>
@@ -6277,7 +6332,7 @@
         <v>3.029380952380953</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <v>44135</v>
       </c>
@@ -6285,7 +6340,7 @@
         <v>3.059318181818182</v>
       </c>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <v>44165</v>
       </c>
@@ -6293,7 +6348,7 @@
         <v>3.20607</v>
       </c>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>44196</v>
       </c>
@@ -6301,28 +6356,28 @@
         <v>3.535172727272728</v>
       </c>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>44227</v>
       </c>
       <c r="B740">
-        <v>3.618763157894736</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2">
+        <v>3.6187631578947359</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>44255</v>
       </c>
       <c r="B741">
-        <v>3.849447368421053</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
+        <v>3.8494473684210528</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>44286</v>
       </c>
       <c r="B742">
-        <v>4.104</v>
+        <v>4.1040000000000001</v>
       </c>
     </row>
   </sheetData>
